--- a/compliance_matrix.xlsx
+++ b/compliance_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nflpk-my.sharepoint.com/personal/yashal_ali_nfoods_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B104B3C-497B-4902-8E06-21041E1D4BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{3B104B3C-497B-4902-8E06-21041E1D4BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7DD2AF-1A2C-432D-B179-F1F063402760}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E7E5D358-624A-4D16-A078-FB6E0EE0C145}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>aliyashal309@gmail.com</t>
-  </si>
-  <si>
-    <t>yashalifarooqui30@gmail.com</t>
   </si>
   <si>
     <t>yashal.ali@nfoods.com</t>
@@ -673,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4E421D-7AEB-4C80-B6D5-B1893429897C}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -733,19 +730,19 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H2" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -762,19 +759,19 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
       </c>
       <c r="G3" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H3" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5">
@@ -791,19 +788,19 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H4" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29">
@@ -820,19 +817,19 @@
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H5" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -849,19 +846,19 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
       </c>
       <c r="G6" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H6" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -878,19 +875,19 @@
         <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H7" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -907,19 +904,19 @@
         <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H8" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -936,19 +933,19 @@
         <v>61</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H9" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -959,25 +956,25 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H10" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29">
@@ -994,19 +991,19 @@
         <v>61</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
       </c>
       <c r="G11" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H11" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1023,19 +1020,19 @@
         <v>61</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H12" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29">
@@ -1052,19 +1049,19 @@
         <v>61</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H13" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1081,19 +1078,19 @@
         <v>61</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H14" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1107,22 +1104,22 @@
         <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H15" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1136,22 +1133,22 @@
         <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H16" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1165,22 +1162,22 @@
         <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H17" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1194,22 +1191,22 @@
         <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
         <v>60</v>
       </c>
       <c r="G18" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H18" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="29">
@@ -1223,22 +1220,22 @@
         <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
         <v>60</v>
       </c>
       <c r="G19" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H19" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="43.5">
@@ -1252,22 +1249,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
         <v>60</v>
       </c>
       <c r="G20" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H20" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1281,22 +1278,22 @@
         <v>17</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
       <c r="G21" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H21" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1310,22 +1307,22 @@
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H22" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1339,22 +1336,22 @@
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
         <v>60</v>
       </c>
       <c r="G23" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H23" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1368,22 +1365,22 @@
         <v>39</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
         <v>60</v>
       </c>
       <c r="G24" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H24" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1397,22 +1394,22 @@
         <v>41</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
         <v>60</v>
       </c>
       <c r="G25" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H25" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="72.5">
@@ -1426,22 +1423,22 @@
         <v>46</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H26" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1458,19 +1455,19 @@
         <v>61</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
         <v>47</v>
       </c>
       <c r="G27" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H27" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="29">
@@ -1487,19 +1484,19 @@
         <v>61</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
         <v>47</v>
       </c>
       <c r="G28" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H28" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="43.5">
@@ -1516,19 +1513,19 @@
         <v>61</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="6">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="H29" s="6">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1546,24 +1543,24 @@
     <hyperlink ref="D12" r:id="rId11" xr:uid="{5892B141-CFE3-4A8D-BC05-5DBF8744FAF4}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{F4BF0D3B-6CB6-40C3-ABEB-1A1811D70C4C}"/>
     <hyperlink ref="D14" r:id="rId13" xr:uid="{9EA6DA2C-1B72-4A09-8B97-FB965A5B2975}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{59EB7B68-0489-4B90-963D-2C02B3D25EB2}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{5EFE1940-EF13-46E3-BD3E-950EE97F332B}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{FBD8A47F-4275-472D-9702-DB6EE3404CBD}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{7EA7E5BB-FB0A-4D21-BD03-A6C574C3EAF2}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{562F11AA-88A9-4DF7-B9DC-44BF068A1B57}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{94A32BC9-F2D4-42CD-A5CC-9884C5F5E83C}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{A49EE222-6AA0-4489-BAC1-5F3735AD64D3}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{E57108DA-EC60-4A97-BA1C-E7D03AE0128C}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{B596FF74-BF89-49E1-B1F9-631ECA6E8D94}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{C19FEC82-7064-4E8A-917A-C8221C0881E4}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{0D92F86B-C5A6-4120-A200-6DCEC7AEF4C6}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{81B84CF6-F8FD-43E2-A6BB-99015E677FE3}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{2609FDF4-49C3-40BF-967D-A7B037920750}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{5F6E4099-1F7E-4705-9019-32E8392B63D1}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{71AC9C77-4ED7-4F39-8487-4170E25DAE73}"/>
-    <hyperlink ref="E3" r:id="rId29" xr:uid="{DE1B39C2-C1C6-4045-A57E-17B0A062B84E}"/>
-    <hyperlink ref="E4:E29" r:id="rId30" display="Link" xr:uid="{DE0A0631-BD77-4AB0-A968-FD71C6F0CA73}"/>
-    <hyperlink ref="E2" r:id="rId31" xr:uid="{84A12AF8-88AD-4359-84BF-F909C6EE5A59}"/>
+    <hyperlink ref="D22" r:id="rId14" xr:uid="{E57108DA-EC60-4A97-BA1C-E7D03AE0128C}"/>
+    <hyperlink ref="D23" r:id="rId15" xr:uid="{B596FF74-BF89-49E1-B1F9-631ECA6E8D94}"/>
+    <hyperlink ref="D24" r:id="rId16" xr:uid="{C19FEC82-7064-4E8A-917A-C8221C0881E4}"/>
+    <hyperlink ref="D25" r:id="rId17" xr:uid="{0D92F86B-C5A6-4120-A200-6DCEC7AEF4C6}"/>
+    <hyperlink ref="D27" r:id="rId18" xr:uid="{2609FDF4-49C3-40BF-967D-A7B037920750}"/>
+    <hyperlink ref="D28" r:id="rId19" xr:uid="{5F6E4099-1F7E-4705-9019-32E8392B63D1}"/>
+    <hyperlink ref="D29" r:id="rId20" xr:uid="{71AC9C77-4ED7-4F39-8487-4170E25DAE73}"/>
+    <hyperlink ref="E3" r:id="rId21" xr:uid="{DE1B39C2-C1C6-4045-A57E-17B0A062B84E}"/>
+    <hyperlink ref="E4:E29" r:id="rId22" display="Link" xr:uid="{DE0A0631-BD77-4AB0-A968-FD71C6F0CA73}"/>
+    <hyperlink ref="E2" r:id="rId23" xr:uid="{84A12AF8-88AD-4359-84BF-F909C6EE5A59}"/>
+    <hyperlink ref="D15" r:id="rId24" xr:uid="{F4E8E4C2-3E50-4D60-89B3-8569F5D906DA}"/>
+    <hyperlink ref="D16" r:id="rId25" xr:uid="{1F4CC7A9-F166-4C48-8604-E0C942781867}"/>
+    <hyperlink ref="D17" r:id="rId26" xr:uid="{BA7D941A-AA38-4BE4-81F4-5F27A12B2C1D}"/>
+    <hyperlink ref="D18" r:id="rId27" xr:uid="{7107FE97-C2DA-462F-BB2C-1C6A153F00A9}"/>
+    <hyperlink ref="D19" r:id="rId28" xr:uid="{33FCA0E2-2634-4D58-9B1D-5CE1DB22BA0B}"/>
+    <hyperlink ref="D20" r:id="rId29" xr:uid="{29581AEF-688E-4546-A9BB-10FDFE4BAB96}"/>
+    <hyperlink ref="D21" r:id="rId30" xr:uid="{21C96052-B6DD-4B36-8046-232382B511E2}"/>
+    <hyperlink ref="D26" r:id="rId31" xr:uid="{C8B1B573-FC9D-4C57-9FF7-AA811BD30C6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/compliance_matrix.xlsx
+++ b/compliance_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nflpk-my.sharepoint.com/personal/yashal_ali_nfoods_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{3B104B3C-497B-4902-8E06-21041E1D4BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7DD2AF-1A2C-432D-B179-F1F063402760}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{3B104B3C-497B-4902-8E06-21041E1D4BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5347C838-CF4B-4BC3-9977-225D64125039}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E7E5D358-624A-4D16-A078-FB6E0EE0C145}"/>
   </bookViews>
@@ -233,10 +233,10 @@
     <t>Quarterly</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>MS 355 Admin Center User License report</t>
+  </si>
+  <si>
+    <t>https://nflpk.sharepoint.com/nfl_site/IT%20Department/Forms/AllItems.aspx?id=%2Fnfl%5Fsite%2FIT%20Department%2FIT%2DGovernance%2FCOMPLIANCE%20MATRIX%2FEVIDENCE&amp;viewid=15a9448d%2D5114%2D4f3f%2D81c3%2Ddaf0476b38d2&amp;CT=1756293467065&amp;OR=OWA%2DNT%2DMail&amp;CID=bedfc76e%2D9e1e%2Db098%2D9316%2D9bdf1d6e274a&amp;csf=1&amp;web=1&amp;e=svmXMI&amp;FolderCTID=0x01200095CBBE0C68C0474BAF872F72573A9D97</t>
   </si>
 </sst>
 </file>
@@ -349,6 +349,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4E421D-7AEB-4C80-B6D5-B1893429897C}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -730,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -759,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -788,7 +792,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
@@ -817,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
@@ -846,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
@@ -875,7 +879,7 @@
         <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -904,7 +908,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -933,7 +937,7 @@
         <v>61</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -956,13 +960,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
         <v>60</v>
@@ -991,7 +995,7 @@
         <v>61</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1020,7 +1024,7 @@
         <v>61</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
@@ -1049,7 +1053,7 @@
         <v>61</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
@@ -1078,7 +1082,7 @@
         <v>61</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
         <v>60</v>
@@ -1107,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
         <v>60</v>
@@ -1136,7 +1140,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
         <v>60</v>
@@ -1165,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
         <v>60</v>
@@ -1194,7 +1198,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
         <v>60</v>
@@ -1223,7 +1227,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
         <v>60</v>
@@ -1252,7 +1256,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
         <v>60</v>
@@ -1281,7 +1285,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
@@ -1310,7 +1314,7 @@
         <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
         <v>60</v>
@@ -1339,7 +1343,7 @@
         <v>62</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
         <v>60</v>
@@ -1368,7 +1372,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
         <v>60</v>
@@ -1397,7 +1401,7 @@
         <v>62</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
         <v>60</v>
@@ -1426,7 +1430,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
         <v>47</v>
@@ -1455,7 +1459,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
         <v>47</v>
@@ -1484,7 +1488,7 @@
         <v>61</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
         <v>47</v>
@@ -1513,7 +1517,7 @@
         <v>61</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
         <v>47</v>
@@ -1550,17 +1554,15 @@
     <hyperlink ref="D27" r:id="rId18" xr:uid="{2609FDF4-49C3-40BF-967D-A7B037920750}"/>
     <hyperlink ref="D28" r:id="rId19" xr:uid="{5F6E4099-1F7E-4705-9019-32E8392B63D1}"/>
     <hyperlink ref="D29" r:id="rId20" xr:uid="{71AC9C77-4ED7-4F39-8487-4170E25DAE73}"/>
-    <hyperlink ref="E3" r:id="rId21" xr:uid="{DE1B39C2-C1C6-4045-A57E-17B0A062B84E}"/>
-    <hyperlink ref="E4:E29" r:id="rId22" display="Link" xr:uid="{DE0A0631-BD77-4AB0-A968-FD71C6F0CA73}"/>
-    <hyperlink ref="E2" r:id="rId23" xr:uid="{84A12AF8-88AD-4359-84BF-F909C6EE5A59}"/>
-    <hyperlink ref="D15" r:id="rId24" xr:uid="{F4E8E4C2-3E50-4D60-89B3-8569F5D906DA}"/>
-    <hyperlink ref="D16" r:id="rId25" xr:uid="{1F4CC7A9-F166-4C48-8604-E0C942781867}"/>
-    <hyperlink ref="D17" r:id="rId26" xr:uid="{BA7D941A-AA38-4BE4-81F4-5F27A12B2C1D}"/>
-    <hyperlink ref="D18" r:id="rId27" xr:uid="{7107FE97-C2DA-462F-BB2C-1C6A153F00A9}"/>
-    <hyperlink ref="D19" r:id="rId28" xr:uid="{33FCA0E2-2634-4D58-9B1D-5CE1DB22BA0B}"/>
-    <hyperlink ref="D20" r:id="rId29" xr:uid="{29581AEF-688E-4546-A9BB-10FDFE4BAB96}"/>
-    <hyperlink ref="D21" r:id="rId30" xr:uid="{21C96052-B6DD-4B36-8046-232382B511E2}"/>
-    <hyperlink ref="D26" r:id="rId31" xr:uid="{C8B1B573-FC9D-4C57-9FF7-AA811BD30C6C}"/>
+    <hyperlink ref="E3" r:id="rId21" display="https://nflpk.sharepoint.com/nfl_site/IT%20Department/Forms/AllItems.aspx?id=%2Fnfl%5Fsite%2FIT%20Department%2FIT%2DGovernance%2FCOMPLIANCE%20MATRIX%2FEVIDENCE&amp;viewid=15a9448d%2D5114%2D4f3f%2D81c3%2Ddaf0476b38d2&amp;CT=1756293467065&amp;OR=OWA%2DNT%2DMail&amp;CID=bedfc76e%2D9e1e%2Db098%2D9316%2D9bdf1d6e274a&amp;csf=1&amp;web=1&amp;e=svmXMI&amp;FolderCTID=0x01200095CBBE0C68C0474BAF872F72573A9D97" xr:uid="{DE1B39C2-C1C6-4045-A57E-17B0A062B84E}"/>
+    <hyperlink ref="D15" r:id="rId22" xr:uid="{F4E8E4C2-3E50-4D60-89B3-8569F5D906DA}"/>
+    <hyperlink ref="D16" r:id="rId23" xr:uid="{1F4CC7A9-F166-4C48-8604-E0C942781867}"/>
+    <hyperlink ref="D17" r:id="rId24" xr:uid="{BA7D941A-AA38-4BE4-81F4-5F27A12B2C1D}"/>
+    <hyperlink ref="D18" r:id="rId25" xr:uid="{7107FE97-C2DA-462F-BB2C-1C6A153F00A9}"/>
+    <hyperlink ref="D19" r:id="rId26" xr:uid="{33FCA0E2-2634-4D58-9B1D-5CE1DB22BA0B}"/>
+    <hyperlink ref="D20" r:id="rId27" xr:uid="{29581AEF-688E-4546-A9BB-10FDFE4BAB96}"/>
+    <hyperlink ref="D21" r:id="rId28" xr:uid="{21C96052-B6DD-4B36-8046-232382B511E2}"/>
+    <hyperlink ref="D26" r:id="rId29" xr:uid="{C8B1B573-FC9D-4C57-9FF7-AA811BD30C6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
